--- a/main/StructureDefinition-bc-practitioner.xlsx
+++ b/main/StructureDefinition-bc-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27T23:52:18+00:00</t>
+    <t>2025-02-28T00:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-qual-1:The number of qualifications must match the number of contained resources. {qualification.count()=contained.count()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}invariant-qual-1:The number of qualifications must match the number of contained resources. {qualification.count()=contained.count()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -319,10 +319,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Practitioner.implicitRules</t>
   </si>
   <si>
@@ -342,6 +349,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Practitioner.language</t>
   </si>
   <si>
@@ -429,9 +439,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Practitioner.contained:QualificationOrganization</t>
   </si>
   <si>
@@ -460,20 +467,30 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -500,10 +517,6 @@
     <t>Implementers should recognize that the determination of whether this should be considered a modifierExtension is ongoing. Since Modifier Extensions should have extreme caution in their application and are further nuanced by the use cases in the implementing registry systems, this extension has been shifted back to a regular extension to align to use in existing implementations. Implementers who are considering using this extension in their guidance are required to review the [FHIR Guidance on Modifier Extensions])(https://www.hl7.org/fhir/R4/extensibility.html#modifierExtension) before including this extension in their profile. Implementers should also be aware of the Practitioner.deceased[x] R5 concept and that the CA Baseline is monitoring changes in the element to determine if the approach to this extension requires a shift.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Practitioner.extension:demographicsPeriod</t>
   </si>
   <si>
@@ -683,10 +696,6 @@
     <t>Practitioner.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -694,9 +703,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -710,10 +716,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
-  </si>
-  <si>
-    <t>An identifier that applies to this person in this role.</t>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
@@ -815,19 +821,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.name.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -912,8 +909,8 @@
     <t>HumanName.family</t>
   </si>
   <si>
-    <t xml:space="preserve">ca-baseline-practitioner-name
-</t>
+    <t>ele-1
+ca-baseline-practitioner-name</t>
   </si>
   <si>
     <t>XPN.1/FN.1</t>
@@ -962,6 +959,9 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>HumanName.prefix</t>
   </si>
   <si>
@@ -1005,10 +1005,18 @@
     <t>Indicates the period of time when this name was valid for the named person.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>XPN.13 + XPN.14</t>
@@ -1037,6 +1045,10 @@
   </si>
   <si>
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
   </si>
   <si>
     <t>PRT-15, STF-10, ROL-12</t>
@@ -1422,6 +1434,12 @@
     <t>Practitioner.birthDate.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Practitioner.birthDate.extension:birthTime</t>
   </si>
   <si>
@@ -1463,7 +1481,17 @@
     <t>Image of the person.</t>
   </si>
   <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
     <t>Many EHR systems have the capability to capture an image of patients and personnel. Fits with newer social media usage too.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
+    <t>ED/RP</t>
   </si>
   <si>
     <t>./subjectOf/ObservationEvent[code="photo"]/value</t>
@@ -1564,7 +1592,13 @@
     <t>Often, specific identities are assigned for the qualification.</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>.playingEntity.playingRole[classCode=QUAL].id</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
   <si>
     <t>Practitioner.qualification.code</t>
@@ -1580,7 +1614,13 @@
     <t>Coded representation of the qualification.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>https://terminology.hlth.gov.bc.ca/ProviderLocationRegistry/ValueSet/bc-qualification-value-set</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1849,6 +1889,9 @@
     <t>Qualifications are often for a limited period of time, and can be revoked.</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
     <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
   </si>
   <si>
@@ -1866,6 +1909,13 @@
   </si>
   <si>
     <t>Organization that regulates and issues the qualification.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
@@ -2729,16 +2779,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>76</v>
@@ -2749,10 +2799,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2775,16 +2825,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2834,7 +2884,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2843,16 +2893,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -2863,10 +2913,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2889,16 +2939,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2924,13 +2974,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2948,7 +2998,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2957,16 +3007,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -2977,14 +3027,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3003,16 +3053,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3062,7 +3112,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -3071,16 +3121,16 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -3091,14 +3141,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3117,16 +3167,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3164,19 +3214,19 @@
         <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -3194,7 +3244,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -3205,13 +3255,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>76</v>
@@ -3233,16 +3283,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3292,7 +3342,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -3307,13 +3357,13 @@
         <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>76</v>
@@ -3321,14 +3371,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3347,15 +3397,17 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -3392,17 +3444,19 @@
         <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AC10" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="AD10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3411,16 +3465,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -3431,16 +3485,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3459,16 +3513,16 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3518,7 +3572,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3527,16 +3581,16 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -3547,13 +3601,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -3575,13 +3629,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3632,7 +3686,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3641,10 +3695,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -3661,13 +3715,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -3689,13 +3743,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3746,7 +3800,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3755,10 +3809,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3775,13 +3829,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -3803,13 +3857,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3860,7 +3914,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3869,10 +3923,10 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3889,13 +3943,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -3917,13 +3971,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3974,7 +4028,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3983,10 +4037,10 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -4003,13 +4057,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
@@ -4031,13 +4085,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4088,7 +4142,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -4097,10 +4151,10 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -4117,13 +4171,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
@@ -4145,13 +4199,13 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4202,7 +4256,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4211,10 +4265,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -4231,13 +4285,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>76</v>
@@ -4259,13 +4313,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4316,7 +4370,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4325,10 +4379,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -4345,13 +4399,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
@@ -4373,13 +4427,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4430,7 +4484,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4439,10 +4493,10 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
@@ -4459,13 +4513,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>76</v>
@@ -4487,13 +4541,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4544,7 +4598,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4553,10 +4607,10 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
@@ -4573,13 +4627,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
@@ -4601,13 +4655,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4658,7 +4712,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4667,10 +4721,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -4687,13 +4741,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
@@ -4715,13 +4769,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4772,7 +4826,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4781,10 +4835,10 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -4801,14 +4855,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4827,19 +4881,19 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4876,19 +4930,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4897,16 +4951,16 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4917,10 +4971,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4943,17 +4997,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -5002,7 +5056,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5011,30 +5065,30 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5057,70 +5111,70 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5129,30 +5183,30 @@
         <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5175,19 +5229,19 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -5236,7 +5290,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5245,19 +5299,19 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -5265,10 +5319,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5291,13 +5345,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5348,7 +5402,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5366,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -5377,14 +5431,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5403,16 +5457,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5450,19 +5504,19 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC28" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5471,16 +5525,16 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5491,10 +5545,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5517,19 +5571,19 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5554,31 +5608,31 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5587,19 +5641,19 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5607,10 +5661,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5633,19 +5687,19 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -5694,7 +5748,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5703,16 +5757,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5723,14 +5777,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5749,16 +5803,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5808,7 +5862,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5817,19 +5871,19 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5837,14 +5891,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5863,16 +5917,16 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5922,7 +5976,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5931,19 +5985,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5951,10 +6005,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5977,15 +6031,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -6043,10 +6099,10 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>300</v>
@@ -6089,7 +6145,7 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>304</v>
@@ -6097,7 +6153,9 @@
       <c r="M34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -6155,10 +6213,10 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>307</v>
@@ -6209,9 +6267,11 @@
       <c r="M35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -6260,7 +6320,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6269,19 +6329,19 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -6289,10 +6349,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6315,19 +6375,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6376,7 +6436,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6385,19 +6445,19 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6405,10 +6465,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6431,19 +6491,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -6492,7 +6552,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6501,19 +6561,19 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6521,10 +6581,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6547,13 +6607,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6604,7 +6664,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6622,7 +6682,7 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6633,14 +6693,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6659,15 +6719,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6704,19 +6766,19 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC39" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6725,16 +6787,16 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6745,16 +6807,16 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6773,15 +6835,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6830,7 +6894,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6839,16 +6903,16 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6859,10 +6923,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6885,19 +6949,19 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6910,7 +6974,7 @@
         <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>76</v>
@@ -6922,13 +6986,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6946,7 +7010,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6955,19 +7019,19 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6975,10 +7039,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7001,16 +7065,16 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7024,7 +7088,7 @@
         <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>76</v>
@@ -7036,13 +7100,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -7060,7 +7124,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7069,16 +7133,16 @@
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -7089,10 +7153,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7115,19 +7179,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -7140,7 +7204,7 @@
         <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>76</v>
@@ -7176,7 +7240,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7185,16 +7249,16 @@
         <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -7205,10 +7269,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7231,15 +7295,17 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -7252,7 +7318,7 @@
         <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>76</v>
@@ -7288,7 +7354,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7297,19 +7363,19 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -7317,14 +7383,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7343,15 +7409,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -7364,7 +7432,7 @@
         <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>76</v>
@@ -7400,7 +7468,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7409,19 +7477,19 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -7429,14 +7497,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7455,16 +7523,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7478,7 +7546,7 @@
         <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>76</v>
@@ -7514,7 +7582,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7523,16 +7591,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7543,14 +7611,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7569,15 +7637,17 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7626,7 +7696,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7635,19 +7705,19 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7655,14 +7725,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7681,15 +7751,17 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7702,7 +7774,7 @@
         <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>76</v>
@@ -7738,7 +7810,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7747,19 +7819,19 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7767,10 +7839,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7793,16 +7865,16 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7852,7 +7924,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7861,19 +7933,19 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7881,10 +7953,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7910,14 +7982,16 @@
         <v>310</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7930,7 +8004,7 @@
         <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>76</v>
@@ -7966,7 +8040,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7975,19 +8049,19 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7995,10 +8069,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8021,17 +8095,19 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -8056,13 +8132,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -8080,7 +8156,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8089,19 +8165,19 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -8109,10 +8185,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8135,17 +8211,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -8194,7 +8270,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8203,19 +8279,19 @@
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -8223,10 +8299,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8249,13 +8325,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8306,7 +8382,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8335,10 +8411,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8361,13 +8437,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>144</v>
+        <v>451</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>145</v>
+        <v>452</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8406,17 +8482,17 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8428,7 +8504,7 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -8445,13 +8521,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>76</v>
@@ -8473,13 +8549,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8530,7 +8606,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8539,10 +8615,10 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -8559,10 +8635,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8585,13 +8661,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8642,7 +8718,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8671,10 +8747,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8697,17 +8773,19 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8756,7 +8834,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8765,19 +8843,19 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>468</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8785,10 +8863,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8811,16 +8889,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8870,7 +8948,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8879,19 +8957,19 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8899,10 +8977,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8925,13 +9003,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8982,7 +9060,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9000,7 +9078,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -9011,14 +9089,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9037,15 +9115,17 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -9082,17 +9162,19 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9101,16 +9183,16 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -9121,13 +9203,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>76</v>
@@ -9149,13 +9231,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9206,7 +9288,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9215,10 +9297,10 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -9235,13 +9317,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>76</v>
@@ -9263,13 +9345,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9320,7 +9402,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9329,10 +9411,10 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -9349,13 +9431,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="B63" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="C63" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>76</v>
@@ -9377,13 +9459,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9434,7 +9516,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9443,10 +9525,10 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -9463,14 +9545,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9489,19 +9571,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9550,7 +9632,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9559,16 +9641,16 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9579,10 +9661,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9605,17 +9687,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9664,7 +9746,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9673,19 +9755,19 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>501</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>76</v>
+        <v>503</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9693,10 +9775,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9719,15 +9801,17 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9752,11 +9836,11 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -9774,7 +9858,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -9783,19 +9867,19 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9803,10 +9887,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9829,13 +9913,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9886,7 +9970,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9904,7 +9988,7 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9915,14 +9999,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9941,16 +10025,16 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>254</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9988,19 +10072,19 @@
         <v>76</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC68" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10009,16 +10093,16 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -10029,10 +10113,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10055,19 +10139,19 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -10104,17 +10188,17 @@
         <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10123,16 +10207,16 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -10143,10 +10227,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10169,13 +10253,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10226,7 +10310,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10244,7 +10328,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -10255,14 +10339,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10281,16 +10365,16 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>254</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10328,19 +10412,19 @@
         <v>76</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC71" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10349,16 +10433,16 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10369,10 +10453,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10395,19 +10479,19 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10456,7 +10540,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10465,16 +10549,16 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10485,10 +10569,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10511,16 +10595,16 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10570,7 +10654,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10579,16 +10663,16 @@
         <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10599,10 +10683,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10625,17 +10709,19 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10684,7 +10770,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10693,16 +10779,16 @@
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10713,10 +10799,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10739,17 +10825,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10798,7 +10886,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10807,16 +10895,16 @@
         <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10827,10 +10915,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10853,19 +10941,19 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10914,7 +11002,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10923,16 +11011,16 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10943,13 +11031,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>76</v>
@@ -10971,19 +11059,19 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -11032,7 +11120,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11041,16 +11129,16 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -11061,10 +11149,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11087,13 +11175,13 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11144,7 +11232,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11162,7 +11250,7 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -11173,14 +11261,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11199,16 +11287,16 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>254</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11246,19 +11334,19 @@
         <v>76</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11267,16 +11355,16 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11287,10 +11375,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11313,26 +11401,26 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>76</v>
@@ -11374,7 +11462,7 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11383,16 +11471,16 @@
         <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -11403,10 +11491,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11429,16 +11517,16 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11488,7 +11576,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11497,16 +11585,16 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -11517,10 +11605,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11543,17 +11631,19 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O82" t="s" s="2">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -11602,7 +11692,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11611,16 +11701,16 @@
         <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11631,10 +11721,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11657,17 +11747,19 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O83" t="s" s="2">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>76</v>
@@ -11716,7 +11808,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11725,16 +11817,16 @@
         <v>87</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -11745,10 +11837,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11771,19 +11863,19 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11832,7 +11924,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11841,16 +11933,16 @@
         <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11861,13 +11953,13 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>76</v>
@@ -11889,19 +11981,19 @@
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -11950,7 +12042,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11959,16 +12051,16 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11979,10 +12071,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12005,13 +12097,13 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12062,7 +12154,7 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12080,7 +12172,7 @@
         <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
@@ -12091,14 +12183,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12117,16 +12209,16 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>254</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12164,19 +12256,19 @@
         <v>76</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC87" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12185,16 +12277,16 @@
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -12205,10 +12297,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12231,26 +12323,26 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>76</v>
@@ -12292,7 +12384,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12301,16 +12393,16 @@
         <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
@@ -12321,10 +12413,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12347,16 +12439,16 @@
         <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12406,7 +12498,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12415,16 +12507,16 @@
         <v>87</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -12435,10 +12527,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12446,7 +12538,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>87</v>
@@ -12461,17 +12553,19 @@
         <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O90" t="s" s="2">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>76</v>
@@ -12520,7 +12614,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12529,16 +12623,16 @@
         <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12549,10 +12643,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12575,17 +12669,19 @@
         <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O91" t="s" s="2">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>76</v>
@@ -12634,7 +12730,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12643,16 +12739,16 @@
         <v>87</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -12663,10 +12759,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12689,19 +12785,19 @@
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>76</v>
@@ -12750,7 +12846,7 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12759,16 +12855,16 @@
         <v>87</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12779,10 +12875,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12805,19 +12901,19 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>76</v>
@@ -12866,7 +12962,7 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12875,16 +12971,16 @@
         <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -12895,10 +12991,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12924,14 +13020,16 @@
         <v>310</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>76</v>
@@ -12980,7 +13078,7 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -12989,19 +13087,19 @@
         <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>76</v>
+        <v>599</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>76</v>
@@ -13009,10 +13107,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13035,15 +13133,17 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -13092,7 +13192,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13101,16 +13201,16 @@
         <v>87</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>99</v>
+        <v>607</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -13121,10 +13221,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13147,19 +13247,19 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -13184,11 +13284,11 @@
         <v>76</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>76</v>
@@ -13206,7 +13306,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13215,19 +13315,19 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>76</v>
@@ -13235,10 +13335,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13261,13 +13361,13 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13318,7 +13418,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13336,7 +13436,7 @@
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -13347,14 +13447,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13373,16 +13473,16 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>254</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13420,19 +13520,19 @@
         <v>76</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC98" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF98" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13444,13 +13544,13 @@
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>76</v>
@@ -13461,13 +13561,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>76</v>
@@ -13489,13 +13589,13 @@
         <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13546,7 +13646,7 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13558,7 +13658,7 @@
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>76</v>
@@ -13575,13 +13675,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>76</v>
@@ -13603,13 +13703,13 @@
         <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13660,7 +13760,7 @@
         <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13672,7 +13772,7 @@
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>76</v>
@@ -13689,13 +13789,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>76</v>
@@ -13717,13 +13817,13 @@
         <v>76</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13774,7 +13874,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13786,7 +13886,7 @@
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>76</v>
@@ -13803,10 +13903,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13829,19 +13929,19 @@
         <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
@@ -13890,7 +13990,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -13902,13 +14002,13 @@
         <v>76</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13919,10 +14019,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13945,19 +14045,19 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>76</v>
@@ -14006,7 +14106,7 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14018,13 +14118,13 @@
         <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>

--- a/main/StructureDefinition-bc-practitioner.xlsx
+++ b/main/StructureDefinition-bc-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-28T00:26:03+00:00</t>
+    <t>2025-03-05T22:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-practitioner.xlsx
+++ b/main/StructureDefinition-bc-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-05T22:25:43+00:00</t>
+    <t>2025-03-06T00:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-practitioner.xlsx
+++ b/main/StructureDefinition-bc-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:10:12+00:00</t>
+    <t>2025-05-30T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2296,17 +2296,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.75" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.34375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.87109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.76953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2315,26 +2315,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="88.5" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="45.30078125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.25390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.87109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.8359375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="55.421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="47.515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
